--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/070_Data_Model_Design/Table_Definition_A1_Project_Management_System.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/070_Data_Model_Design/Table_Definition_A1_Project_Management_System.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C903712C-0B3F-49FF-897E-0E6EC4D78CEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C619A1D4-B685-47D9-BD92-2FB77624C000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="5355" windowWidth="23955" windowHeight="8460" tabRatio="838" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="48" state="hidden" r:id="rId1"/>
@@ -519,9 +519,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>INDEX</t>
   </si>
   <si>
@@ -770,6 +767,9 @@
   </si>
   <si>
     <t>UPPER_ORGANIZATION</t>
+  </si>
+  <si>
+    <t>Required</t>
   </si>
 </sst>
 </file>
@@ -6584,10 +6584,10 @@
         <v>77</v>
       </c>
       <c r="W8" s="190" t="s">
+        <v>161</v>
+      </c>
+      <c r="X8" s="193" t="s">
         <v>78</v>
-      </c>
-      <c r="X8" s="193" t="s">
-        <v>79</v>
       </c>
       <c r="Y8" s="194"/>
       <c r="Z8" s="194"/>
@@ -6596,7 +6596,7 @@
       <c r="AC8" s="194"/>
       <c r="AD8" s="195"/>
       <c r="AE8" s="196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF8" s="197"/>
       <c r="AG8" s="197"/>
@@ -6608,15 +6608,15 @@
       <c r="AM8" s="197"/>
       <c r="AN8" s="198"/>
       <c r="AO8" s="196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP8" s="198"/>
       <c r="AQ8" s="196" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR8" s="198"/>
       <c r="AS8" s="186" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT8" s="186"/>
       <c r="AU8" s="186"/>
@@ -6717,7 +6717,7 @@
       <c r="V10" s="192"/>
       <c r="W10" s="192"/>
       <c r="X10" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y10" s="76"/>
       <c r="Z10" s="76"/>
@@ -6752,28 +6752,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="179"/>
       <c r="D11" s="179"/>
       <c r="E11" s="179"/>
       <c r="F11" s="180"/>
       <c r="G11" s="181" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="182"/>
       <c r="I11" s="182"/>
       <c r="J11" s="182"/>
       <c r="K11" s="183"/>
       <c r="L11" s="187" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="188"/>
       <c r="N11" s="188"/>
       <c r="O11" s="188"/>
       <c r="P11" s="189"/>
       <c r="Q11" s="187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" s="188"/>
       <c r="S11" s="189"/>
@@ -6783,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X11" s="79"/>
       <c r="Y11" s="79"/>
@@ -6819,28 +6819,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="178" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="179"/>
       <c r="D12" s="179"/>
       <c r="E12" s="179"/>
       <c r="F12" s="180"/>
       <c r="G12" s="181" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="182"/>
       <c r="I12" s="182"/>
       <c r="J12" s="182"/>
       <c r="K12" s="183"/>
       <c r="L12" s="181" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M12" s="182"/>
       <c r="N12" s="182"/>
       <c r="O12" s="182"/>
       <c r="P12" s="183"/>
       <c r="Q12" s="181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="182"/>
       <c r="S12" s="183"/>
@@ -6850,10 +6850,10 @@
       <c r="U12" s="185"/>
       <c r="V12" s="77"/>
       <c r="W12" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X12" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y12" s="79"/>
       <c r="Z12" s="80"/>
@@ -6888,28 +6888,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="178" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="179"/>
       <c r="D13" s="179"/>
       <c r="E13" s="179"/>
       <c r="F13" s="180"/>
       <c r="G13" s="181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="182"/>
       <c r="I13" s="182"/>
       <c r="J13" s="182"/>
       <c r="K13" s="183"/>
       <c r="L13" s="181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M13" s="182"/>
       <c r="N13" s="182"/>
       <c r="O13" s="182"/>
       <c r="P13" s="183"/>
       <c r="Q13" s="181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R13" s="182"/>
       <c r="S13" s="183"/>
@@ -6919,7 +6919,7 @@
       <c r="U13" s="185"/>
       <c r="V13" s="77"/>
       <c r="W13" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X13" s="80"/>
       <c r="Y13" s="80"/>
@@ -6955,28 +6955,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="178" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="179"/>
       <c r="D14" s="179"/>
       <c r="E14" s="179"/>
       <c r="F14" s="180"/>
       <c r="G14" s="181" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="182"/>
       <c r="I14" s="182"/>
       <c r="J14" s="182"/>
       <c r="K14" s="183"/>
       <c r="L14" s="181" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M14" s="182"/>
       <c r="N14" s="182"/>
       <c r="O14" s="182"/>
       <c r="P14" s="183"/>
       <c r="Q14" s="181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R14" s="182"/>
       <c r="S14" s="183"/>
@@ -6984,7 +6984,7 @@
       <c r="U14" s="185"/>
       <c r="V14" s="77"/>
       <c r="W14" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X14" s="80"/>
       <c r="Y14" s="80"/>
@@ -7020,28 +7020,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="179"/>
       <c r="D15" s="179"/>
       <c r="E15" s="179"/>
       <c r="F15" s="180"/>
       <c r="G15" s="181" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H15" s="182"/>
       <c r="I15" s="182"/>
       <c r="J15" s="182"/>
       <c r="K15" s="183"/>
       <c r="L15" s="181" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M15" s="182"/>
       <c r="N15" s="182"/>
       <c r="O15" s="182"/>
       <c r="P15" s="183"/>
       <c r="Q15" s="181" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R15" s="182"/>
       <c r="S15" s="183"/>
@@ -7049,7 +7049,7 @@
       <c r="U15" s="185"/>
       <c r="V15" s="77"/>
       <c r="W15" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X15" s="80"/>
       <c r="Y15" s="80"/>
@@ -7085,28 +7085,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="178" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="179"/>
       <c r="D16" s="179"/>
       <c r="E16" s="179"/>
       <c r="F16" s="180"/>
       <c r="G16" s="181" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H16" s="182"/>
       <c r="I16" s="182"/>
       <c r="J16" s="182"/>
       <c r="K16" s="183"/>
       <c r="L16" s="181" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M16" s="182"/>
       <c r="N16" s="182"/>
       <c r="O16" s="182"/>
       <c r="P16" s="183"/>
       <c r="Q16" s="181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R16" s="182"/>
       <c r="S16" s="183"/>
@@ -7148,28 +7148,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="178" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="179"/>
       <c r="D17" s="179"/>
       <c r="E17" s="179"/>
       <c r="F17" s="180"/>
       <c r="G17" s="181" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" s="182"/>
       <c r="I17" s="182"/>
       <c r="J17" s="182"/>
       <c r="K17" s="183"/>
       <c r="L17" s="181" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M17" s="182"/>
       <c r="N17" s="182"/>
       <c r="O17" s="182"/>
       <c r="P17" s="183"/>
       <c r="Q17" s="181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R17" s="182"/>
       <c r="S17" s="183"/>
@@ -7211,28 +7211,28 @@
         <v>8</v>
       </c>
       <c r="B18" s="178" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="179"/>
       <c r="D18" s="179"/>
       <c r="E18" s="179"/>
       <c r="F18" s="180"/>
       <c r="G18" s="181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="182"/>
       <c r="I18" s="182"/>
       <c r="J18" s="182"/>
       <c r="K18" s="183"/>
       <c r="L18" s="181" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M18" s="182"/>
       <c r="N18" s="182"/>
       <c r="O18" s="182"/>
       <c r="P18" s="183"/>
       <c r="Q18" s="181" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R18" s="182"/>
       <c r="S18" s="183"/>
@@ -8055,7 +8055,7 @@
       <c r="D5" s="206"/>
       <c r="E5" s="207"/>
       <c r="F5" s="181" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="182"/>
       <c r="H5" s="182"/>
@@ -8076,7 +8076,7 @@
       <c r="U5" s="206"/>
       <c r="V5" s="207"/>
       <c r="W5" s="181" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X5" s="182"/>
       <c r="Y5" s="182"/>
@@ -8165,10 +8165,10 @@
         <v>77</v>
       </c>
       <c r="W8" s="190" t="s">
+        <v>161</v>
+      </c>
+      <c r="X8" s="193" t="s">
         <v>78</v>
-      </c>
-      <c r="X8" s="193" t="s">
-        <v>79</v>
       </c>
       <c r="Y8" s="194"/>
       <c r="Z8" s="194"/>
@@ -8177,7 +8177,7 @@
       <c r="AC8" s="194"/>
       <c r="AD8" s="195"/>
       <c r="AE8" s="196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF8" s="197"/>
       <c r="AG8" s="197"/>
@@ -8189,15 +8189,15 @@
       <c r="AM8" s="197"/>
       <c r="AN8" s="198"/>
       <c r="AO8" s="196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP8" s="198"/>
       <c r="AQ8" s="196" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR8" s="198"/>
       <c r="AS8" s="186" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT8" s="186"/>
       <c r="AU8" s="186"/>
@@ -8331,28 +8331,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="178" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="179"/>
       <c r="D11" s="179"/>
       <c r="E11" s="179"/>
       <c r="F11" s="180"/>
       <c r="G11" s="181" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="182"/>
       <c r="I11" s="182"/>
       <c r="J11" s="182"/>
       <c r="K11" s="183"/>
       <c r="L11" s="181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="182"/>
       <c r="N11" s="182"/>
       <c r="O11" s="182"/>
       <c r="P11" s="183"/>
       <c r="Q11" s="181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" s="182"/>
       <c r="S11" s="183"/>
@@ -8362,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X11" s="79"/>
       <c r="Y11" s="79"/>
@@ -8398,28 +8398,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="178" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="179"/>
       <c r="D12" s="179"/>
       <c r="E12" s="179"/>
       <c r="F12" s="180"/>
       <c r="G12" s="181" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="182"/>
       <c r="I12" s="182"/>
       <c r="J12" s="182"/>
       <c r="K12" s="183"/>
       <c r="L12" s="181" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M12" s="182"/>
       <c r="N12" s="182"/>
       <c r="O12" s="182"/>
       <c r="P12" s="183"/>
       <c r="Q12" s="181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="182"/>
       <c r="S12" s="183"/>
@@ -8429,7 +8429,7 @@
       <c r="U12" s="185"/>
       <c r="V12" s="77"/>
       <c r="W12" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X12" s="79"/>
       <c r="Y12" s="79"/>
@@ -8465,28 +8465,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="179"/>
       <c r="D13" s="179"/>
       <c r="E13" s="179"/>
       <c r="F13" s="180"/>
       <c r="G13" s="181" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="182"/>
       <c r="I13" s="182"/>
       <c r="J13" s="182"/>
       <c r="K13" s="183"/>
       <c r="L13" s="181" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M13" s="182"/>
       <c r="N13" s="182"/>
       <c r="O13" s="182"/>
       <c r="P13" s="183"/>
       <c r="Q13" s="181" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R13" s="182"/>
       <c r="S13" s="183"/>
@@ -8496,7 +8496,7 @@
       <c r="U13" s="185"/>
       <c r="V13" s="77"/>
       <c r="W13" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X13" s="80"/>
       <c r="Y13" s="80"/>
@@ -8532,28 +8532,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="178" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="179"/>
       <c r="D14" s="179"/>
       <c r="E14" s="179"/>
       <c r="F14" s="180"/>
       <c r="G14" s="181" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="182"/>
       <c r="I14" s="182"/>
       <c r="J14" s="182"/>
       <c r="K14" s="183"/>
       <c r="L14" s="181" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M14" s="182"/>
       <c r="N14" s="182"/>
       <c r="O14" s="182"/>
       <c r="P14" s="183"/>
       <c r="Q14" s="181" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R14" s="182"/>
       <c r="S14" s="183"/>
@@ -8563,7 +8563,7 @@
       <c r="U14" s="185"/>
       <c r="V14" s="77"/>
       <c r="W14" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X14" s="80"/>
       <c r="Y14" s="80"/>
@@ -8599,28 +8599,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="178" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="179"/>
       <c r="D15" s="179"/>
       <c r="E15" s="179"/>
       <c r="F15" s="180"/>
       <c r="G15" s="181" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="182"/>
       <c r="I15" s="182"/>
       <c r="J15" s="182"/>
       <c r="K15" s="183"/>
       <c r="L15" s="181" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M15" s="182"/>
       <c r="N15" s="182"/>
       <c r="O15" s="182"/>
       <c r="P15" s="183"/>
       <c r="Q15" s="181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R15" s="182"/>
       <c r="S15" s="183"/>
@@ -8628,7 +8628,7 @@
       <c r="U15" s="185"/>
       <c r="V15" s="77"/>
       <c r="W15" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X15" s="80"/>
       <c r="Y15" s="80"/>
@@ -8664,28 +8664,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="178" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="179"/>
       <c r="D16" s="179"/>
       <c r="E16" s="179"/>
       <c r="F16" s="180"/>
       <c r="G16" s="181" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="182"/>
       <c r="I16" s="182"/>
       <c r="J16" s="182"/>
       <c r="K16" s="183"/>
       <c r="L16" s="181" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M16" s="182"/>
       <c r="N16" s="182"/>
       <c r="O16" s="182"/>
       <c r="P16" s="183"/>
       <c r="Q16" s="181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R16" s="182"/>
       <c r="S16" s="183"/>
@@ -8693,7 +8693,7 @@
       <c r="U16" s="185"/>
       <c r="V16" s="77"/>
       <c r="W16" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X16" s="80"/>
       <c r="Y16" s="80"/>
@@ -8729,28 +8729,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="178" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="179"/>
       <c r="D17" s="179"/>
       <c r="E17" s="179"/>
       <c r="F17" s="180"/>
       <c r="G17" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="182"/>
       <c r="I17" s="182"/>
       <c r="J17" s="182"/>
       <c r="K17" s="183"/>
       <c r="L17" s="181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M17" s="182"/>
       <c r="N17" s="182"/>
       <c r="O17" s="182"/>
       <c r="P17" s="183"/>
       <c r="Q17" s="181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R17" s="182"/>
       <c r="S17" s="183"/>
@@ -8758,7 +8758,7 @@
       <c r="U17" s="185"/>
       <c r="V17" s="77"/>
       <c r="W17" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X17" s="80"/>
       <c r="Y17" s="80"/>
@@ -8794,28 +8794,28 @@
         <v>8</v>
       </c>
       <c r="B18" s="178" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="179"/>
       <c r="D18" s="179"/>
       <c r="E18" s="179"/>
       <c r="F18" s="180"/>
       <c r="G18" s="181" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" s="182"/>
       <c r="I18" s="182"/>
       <c r="J18" s="182"/>
       <c r="K18" s="183"/>
       <c r="L18" s="181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M18" s="182"/>
       <c r="N18" s="182"/>
       <c r="O18" s="182"/>
       <c r="P18" s="183"/>
       <c r="Q18" s="181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R18" s="182"/>
       <c r="S18" s="183"/>
@@ -8823,7 +8823,7 @@
       <c r="U18" s="185"/>
       <c r="V18" s="77"/>
       <c r="W18" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X18" s="80"/>
       <c r="Y18" s="80"/>
@@ -8859,28 +8859,28 @@
         <v>9</v>
       </c>
       <c r="B19" s="178" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="179"/>
       <c r="D19" s="179"/>
       <c r="E19" s="179"/>
       <c r="F19" s="180"/>
       <c r="G19" s="181" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" s="182"/>
       <c r="I19" s="182"/>
       <c r="J19" s="182"/>
       <c r="K19" s="183"/>
       <c r="L19" s="181" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M19" s="182"/>
       <c r="N19" s="182"/>
       <c r="O19" s="182"/>
       <c r="P19" s="183"/>
       <c r="Q19" s="181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R19" s="182"/>
       <c r="S19" s="183"/>
@@ -8890,7 +8890,7 @@
       <c r="U19" s="185"/>
       <c r="V19" s="77"/>
       <c r="W19" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X19" s="80"/>
       <c r="Y19" s="80"/>
@@ -8926,28 +8926,28 @@
         <v>10</v>
       </c>
       <c r="B20" s="178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="179"/>
       <c r="D20" s="179"/>
       <c r="E20" s="179"/>
       <c r="F20" s="180"/>
       <c r="G20" s="181" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" s="182"/>
       <c r="I20" s="182"/>
       <c r="J20" s="182"/>
       <c r="K20" s="183"/>
       <c r="L20" s="181" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M20" s="182"/>
       <c r="N20" s="182"/>
       <c r="O20" s="182"/>
       <c r="P20" s="183"/>
       <c r="Q20" s="181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R20" s="182"/>
       <c r="S20" s="183"/>
@@ -8957,7 +8957,7 @@
       <c r="U20" s="185"/>
       <c r="V20" s="77"/>
       <c r="W20" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X20" s="79"/>
       <c r="Y20" s="80"/>
@@ -8993,28 +8993,28 @@
         <v>11</v>
       </c>
       <c r="B21" s="178" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="179"/>
       <c r="D21" s="179"/>
       <c r="E21" s="179"/>
       <c r="F21" s="180"/>
       <c r="G21" s="181" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H21" s="182"/>
       <c r="I21" s="182"/>
       <c r="J21" s="182"/>
       <c r="K21" s="183"/>
       <c r="L21" s="181" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M21" s="182"/>
       <c r="N21" s="182"/>
       <c r="O21" s="182"/>
       <c r="P21" s="183"/>
       <c r="Q21" s="181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R21" s="182"/>
       <c r="S21" s="183"/>
@@ -9058,28 +9058,28 @@
         <v>12</v>
       </c>
       <c r="B22" s="178" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="179"/>
       <c r="D22" s="179"/>
       <c r="E22" s="179"/>
       <c r="F22" s="180"/>
       <c r="G22" s="181" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="182"/>
       <c r="I22" s="182"/>
       <c r="J22" s="182"/>
       <c r="K22" s="183"/>
       <c r="L22" s="181" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M22" s="182"/>
       <c r="N22" s="182"/>
       <c r="O22" s="182"/>
       <c r="P22" s="183"/>
       <c r="Q22" s="181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R22" s="182"/>
       <c r="S22" s="183"/>
@@ -9121,28 +9121,28 @@
         <v>13</v>
       </c>
       <c r="B23" s="178" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="179"/>
       <c r="D23" s="179"/>
       <c r="E23" s="179"/>
       <c r="F23" s="180"/>
       <c r="G23" s="181" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="182"/>
       <c r="I23" s="182"/>
       <c r="J23" s="182"/>
       <c r="K23" s="183"/>
       <c r="L23" s="181" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M23" s="182"/>
       <c r="N23" s="182"/>
       <c r="O23" s="182"/>
       <c r="P23" s="183"/>
       <c r="Q23" s="181" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R23" s="182"/>
       <c r="S23" s="183"/>
@@ -9150,7 +9150,7 @@
       <c r="U23" s="185"/>
       <c r="V23" s="77"/>
       <c r="W23" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X23" s="80"/>
       <c r="Y23" s="80"/>
@@ -9888,7 +9888,7 @@
       <c r="D5" s="206"/>
       <c r="E5" s="207"/>
       <c r="F5" s="181" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="182"/>
       <c r="H5" s="182"/>
@@ -9909,7 +9909,7 @@
       <c r="U5" s="206"/>
       <c r="V5" s="207"/>
       <c r="W5" s="181" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X5" s="182"/>
       <c r="Y5" s="182"/>
@@ -9998,10 +9998,10 @@
         <v>77</v>
       </c>
       <c r="W8" s="190" t="s">
+        <v>161</v>
+      </c>
+      <c r="X8" s="193" t="s">
         <v>78</v>
-      </c>
-      <c r="X8" s="193" t="s">
-        <v>79</v>
       </c>
       <c r="Y8" s="194"/>
       <c r="Z8" s="194"/>
@@ -10010,7 +10010,7 @@
       <c r="AC8" s="194"/>
       <c r="AD8" s="195"/>
       <c r="AE8" s="196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF8" s="197"/>
       <c r="AG8" s="197"/>
@@ -10022,15 +10022,15 @@
       <c r="AM8" s="197"/>
       <c r="AN8" s="198"/>
       <c r="AO8" s="196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP8" s="198"/>
       <c r="AQ8" s="196" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR8" s="198"/>
       <c r="AS8" s="186" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT8" s="186"/>
       <c r="AU8" s="186"/>
@@ -10164,28 +10164,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="178" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="179"/>
       <c r="D11" s="179"/>
       <c r="E11" s="179"/>
       <c r="F11" s="180"/>
       <c r="G11" s="181" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="182"/>
       <c r="I11" s="182"/>
       <c r="J11" s="182"/>
       <c r="K11" s="183"/>
       <c r="L11" s="181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="182"/>
       <c r="N11" s="182"/>
       <c r="O11" s="182"/>
       <c r="P11" s="183"/>
       <c r="Q11" s="181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" s="182"/>
       <c r="S11" s="183"/>
@@ -10195,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X11" s="79"/>
       <c r="Y11" s="79"/>
@@ -10231,28 +10231,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="179"/>
       <c r="D12" s="179"/>
       <c r="E12" s="179"/>
       <c r="F12" s="180"/>
       <c r="G12" s="181" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="182"/>
       <c r="I12" s="182"/>
       <c r="J12" s="182"/>
       <c r="K12" s="183"/>
       <c r="L12" s="181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="182"/>
       <c r="N12" s="182"/>
       <c r="O12" s="182"/>
       <c r="P12" s="183"/>
       <c r="Q12" s="181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R12" s="182"/>
       <c r="S12" s="183"/>
@@ -10262,7 +10262,7 @@
         <v>2</v>
       </c>
       <c r="W12" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X12" s="79"/>
       <c r="Y12" s="79"/>
@@ -11457,7 +11457,7 @@
       <c r="D5" s="206"/>
       <c r="E5" s="207"/>
       <c r="F5" s="181" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G5" s="182"/>
       <c r="H5" s="182"/>
@@ -11478,7 +11478,7 @@
       <c r="U5" s="206"/>
       <c r="V5" s="207"/>
       <c r="W5" s="181" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X5" s="182"/>
       <c r="Y5" s="182"/>
@@ -11567,10 +11567,10 @@
         <v>77</v>
       </c>
       <c r="W8" s="190" t="s">
+        <v>161</v>
+      </c>
+      <c r="X8" s="193" t="s">
         <v>78</v>
-      </c>
-      <c r="X8" s="193" t="s">
-        <v>79</v>
       </c>
       <c r="Y8" s="194"/>
       <c r="Z8" s="194"/>
@@ -11579,7 +11579,7 @@
       <c r="AC8" s="194"/>
       <c r="AD8" s="195"/>
       <c r="AE8" s="196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF8" s="197"/>
       <c r="AG8" s="197"/>
@@ -11591,15 +11591,15 @@
       <c r="AM8" s="197"/>
       <c r="AN8" s="198"/>
       <c r="AO8" s="196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP8" s="198"/>
       <c r="AQ8" s="196" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR8" s="198"/>
       <c r="AS8" s="186" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT8" s="186"/>
       <c r="AU8" s="186"/>
@@ -11733,28 +11733,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="179"/>
       <c r="D11" s="179"/>
       <c r="E11" s="179"/>
       <c r="F11" s="180"/>
       <c r="G11" s="181" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="182"/>
       <c r="I11" s="182"/>
       <c r="J11" s="182"/>
       <c r="K11" s="183"/>
       <c r="L11" s="181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="182"/>
       <c r="N11" s="182"/>
       <c r="O11" s="182"/>
       <c r="P11" s="183"/>
       <c r="Q11" s="181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" s="182"/>
       <c r="S11" s="183"/>
@@ -11764,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X11" s="79"/>
       <c r="Y11" s="79"/>
@@ -11800,28 +11800,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="178" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="179"/>
       <c r="D12" s="179"/>
       <c r="E12" s="179"/>
       <c r="F12" s="180"/>
       <c r="G12" s="181" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" s="182"/>
       <c r="I12" s="182"/>
       <c r="J12" s="182"/>
       <c r="K12" s="183"/>
       <c r="L12" s="181" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M12" s="182"/>
       <c r="N12" s="182"/>
       <c r="O12" s="182"/>
       <c r="P12" s="183"/>
       <c r="Q12" s="181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="182"/>
       <c r="S12" s="183"/>
@@ -11831,7 +11831,7 @@
       <c r="U12" s="185"/>
       <c r="V12" s="77"/>
       <c r="W12" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X12" s="79"/>
       <c r="Y12" s="79"/>
@@ -11867,28 +11867,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="179"/>
       <c r="D13" s="179"/>
       <c r="E13" s="179"/>
       <c r="F13" s="180"/>
       <c r="G13" s="181" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="182"/>
       <c r="I13" s="182"/>
       <c r="J13" s="182"/>
       <c r="K13" s="183"/>
       <c r="L13" s="181" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M13" s="182"/>
       <c r="N13" s="182"/>
       <c r="O13" s="182"/>
       <c r="P13" s="183"/>
       <c r="Q13" s="181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R13" s="182"/>
       <c r="S13" s="183"/>
@@ -11898,7 +11898,7 @@
       <c r="U13" s="185"/>
       <c r="V13" s="77"/>
       <c r="W13" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X13" s="80"/>
       <c r="Y13" s="80"/>
@@ -11934,28 +11934,28 @@
         <v>4</v>
       </c>
       <c r="B14" s="178" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="179"/>
       <c r="D14" s="179"/>
       <c r="E14" s="179"/>
       <c r="F14" s="180"/>
       <c r="G14" s="181" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H14" s="182"/>
       <c r="I14" s="182"/>
       <c r="J14" s="182"/>
       <c r="K14" s="183"/>
       <c r="L14" s="181" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M14" s="182"/>
       <c r="N14" s="182"/>
       <c r="O14" s="182"/>
       <c r="P14" s="183"/>
       <c r="Q14" s="181" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R14" s="182"/>
       <c r="S14" s="183"/>
@@ -11963,7 +11963,7 @@
       <c r="U14" s="185"/>
       <c r="V14" s="77"/>
       <c r="W14" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X14" s="80"/>
       <c r="Y14" s="80"/>
@@ -13052,7 +13052,7 @@
       <c r="D5" s="206"/>
       <c r="E5" s="207"/>
       <c r="F5" s="181" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="182"/>
       <c r="H5" s="182"/>
@@ -13073,7 +13073,7 @@
       <c r="U5" s="206"/>
       <c r="V5" s="207"/>
       <c r="W5" s="181" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X5" s="182"/>
       <c r="Y5" s="182"/>
@@ -13162,10 +13162,10 @@
         <v>77</v>
       </c>
       <c r="W8" s="190" t="s">
+        <v>161</v>
+      </c>
+      <c r="X8" s="193" t="s">
         <v>78</v>
-      </c>
-      <c r="X8" s="193" t="s">
-        <v>79</v>
       </c>
       <c r="Y8" s="194"/>
       <c r="Z8" s="194"/>
@@ -13174,7 +13174,7 @@
       <c r="AC8" s="194"/>
       <c r="AD8" s="195"/>
       <c r="AE8" s="196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF8" s="197"/>
       <c r="AG8" s="197"/>
@@ -13186,15 +13186,15 @@
       <c r="AM8" s="197"/>
       <c r="AN8" s="198"/>
       <c r="AO8" s="196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AP8" s="198"/>
       <c r="AQ8" s="196" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR8" s="198"/>
       <c r="AS8" s="186" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AT8" s="186"/>
       <c r="AU8" s="186"/>
@@ -13328,28 +13328,28 @@
         <v>1</v>
       </c>
       <c r="B11" s="178" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="179"/>
       <c r="D11" s="179"/>
       <c r="E11" s="179"/>
       <c r="F11" s="180"/>
       <c r="G11" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="182"/>
       <c r="I11" s="182"/>
       <c r="J11" s="182"/>
       <c r="K11" s="183"/>
       <c r="L11" s="181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="182"/>
       <c r="N11" s="182"/>
       <c r="O11" s="182"/>
       <c r="P11" s="183"/>
       <c r="Q11" s="181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" s="182"/>
       <c r="S11" s="183"/>
@@ -13359,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X11" s="79"/>
       <c r="Y11" s="79"/>
@@ -13395,28 +13395,28 @@
         <v>2</v>
       </c>
       <c r="B12" s="178" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="179"/>
       <c r="D12" s="179"/>
       <c r="E12" s="179"/>
       <c r="F12" s="180"/>
       <c r="G12" s="181" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" s="182"/>
       <c r="I12" s="182"/>
       <c r="J12" s="182"/>
       <c r="K12" s="183"/>
       <c r="L12" s="181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M12" s="182"/>
       <c r="N12" s="182"/>
       <c r="O12" s="182"/>
       <c r="P12" s="183"/>
       <c r="Q12" s="181" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R12" s="182"/>
       <c r="S12" s="183"/>
@@ -13460,28 +13460,28 @@
         <v>3</v>
       </c>
       <c r="B13" s="178" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="179"/>
       <c r="D13" s="179"/>
       <c r="E13" s="179"/>
       <c r="F13" s="180"/>
       <c r="G13" s="181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H13" s="182"/>
       <c r="I13" s="182"/>
       <c r="J13" s="182"/>
       <c r="K13" s="183"/>
       <c r="L13" s="181" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="182"/>
       <c r="N13" s="182"/>
       <c r="O13" s="182"/>
       <c r="P13" s="183"/>
       <c r="Q13" s="181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R13" s="182"/>
       <c r="S13" s="183"/>
